--- a/Config/Excel/Tables/常量表.xlsx
+++ b/Config/Excel/Tables/常量表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25440" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>##column#var</t>
   </si>
@@ -53,6 +53,18 @@
   <si>
     <t>倍率</t>
   </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Realm服务器Id</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>登录中心服Id</t>
+  </si>
 </sst>
 </file>
 
@@ -64,13 +76,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -537,139 +555,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -990,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="19.2833333333333" customWidth="1"/>
@@ -1034,6 +1055,34 @@
       </c>
       <c r="D4">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
